--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_017.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_017.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
   </si>
   <si>
     <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
   </si>
   <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
-  </si>
-  <si>
-    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
-  </si>
-  <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295019AK2.12) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295001AA1.06) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Power range monitoring system</t>
-  </si>
-  <si>
-    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
-  </si>
-  <si>
-    <t>(295024EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
-  </si>
-  <si>
-    <t>(295025EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Safety/relief valve tailpipe temperature/pressure relationships</t>
-  </si>
-  <si>
-    <t>(295038EA1.14) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Offgas system</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022AK2.02) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(500000EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295035EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Blowout panels</t>
-  </si>
-  <si>
-    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(239002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) DC power</t>
-  </si>
-  <si>
-    <t>(400000K4.07) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOCA signal</t>
-  </si>
-  <si>
-    <t>(261000A2.11) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment pressure</t>
-  </si>
-  <si>
-    <t>(223002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
-  </si>
-  <si>
-    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
-  </si>
-  <si>
-    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(264000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Load sequencing</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291005K1.01) MOTORS AND GENERATORS (CFR: 41.7) Indication of a locked rotor</t>
-  </si>
-  <si>
-    <t>(259002A3.10) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) TDRFP lockup</t>
-  </si>
-  <si>
-    <t>(215005K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) TIP</t>
-  </si>
-  <si>
-    <t>(215003K4.10) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM rod block signals</t>
-  </si>
-  <si>
-    <t>(510000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/traveling screen failure</t>
-  </si>
-  <si>
-    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
-  </si>
-  <si>
-    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
-  </si>
-  <si>
-    <t>(217000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler Instrumentation</t>
-  </si>
-  <si>
-    <t>(262002K3.11) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
-  </si>
-  <si>
-    <t>(400000K4.06) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System protection due to reactor coolant system in‑leakage</t>
-  </si>
-  <si>
-    <t>(219000K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool temperature control</t>
-  </si>
-  <si>
-    <t>(239003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) Radiation release</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (291001K1.01) VALVES (CFR: 41.3) The function and operation of safety valves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(204000A3.01) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System pressure control for low pressure piping </t>
-  </si>
-  <si>
-    <t>(241000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) DC electrical power</t>
-  </si>
-  <si>
-    <t>(215001K4.03) Knowledge of (SF7 TIP) TRAVERSING IN CORE PROBE design features and/or interlocks that provide for the following: (CFR: 41.7) Radiation shielding</t>
-  </si>
-  <si>
-    <t>(290003A2.04) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(202002A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Recirculation system flow</t>
-  </si>
-  <si>
-    <t>(256000K2.02) (SF2 CDS) CONDENSATE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(233000A4.09) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system pumps</t>
-  </si>
-  <si>
-    <t>(202001K1.20) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EK2.21) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Low-pressure core spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
+  </si>
+  <si>
+    <t>(295006AA1.01) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EK2.01) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(295031EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
+  </si>
+  <si>
+    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295014AK2.12) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
+  </si>
+  <si>
+    <t>(295022AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Closing flow control valve</t>
+  </si>
+  <si>
+    <t>(295012AA1.01) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell ventilation system</t>
+  </si>
+  <si>
+    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
+  </si>
+  <si>
+    <t>(295013AA2.02) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Localized heating/stratification</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(218000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Primary containment/drywell pressure instrumentation</t>
+  </si>
+  <si>
+    <t>(259002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level control controller indications</t>
+  </si>
+  <si>
+    <t>(239002A4.01) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(217000K4.07) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic transfer of RCIC pump suction</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262001A3.03) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Load shedding</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(209002K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety-related service water</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
+  </si>
+  <si>
+    <t>(223002K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Reactor protection system</t>
+  </si>
+  <si>
+    <t>(203000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Emergency generator loading</t>
+  </si>
+  <si>
+    <t>(263000A4.05) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Meters, dials, recorders, alarms, and indicating lights</t>
+  </si>
+  <si>
+    <t>(205000K4.03) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291006K1.02) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Proper filling of a shell-and-tube heat exchanger</t>
+  </si>
+  <si>
+    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(215005K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RBMS</t>
+  </si>
+  <si>
+    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
+  </si>
+  <si>
+    <t>(510000K3.06) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HIGH-PRESSURE CORE SPRAY SYSTEM (BWR 5, 6)</t>
+  </si>
+  <si>
+    <t>(264000A2.10) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA</t>
+  </si>
+  <si>
+    <t>(218000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Reactor water level instrumentation</t>
+  </si>
+  <si>
+    <t>(259002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) FWRV/startup level control position</t>
+  </si>
+  <si>
+    <t>(239002A4.05) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(202002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Feedback signals</t>
+  </si>
+  <si>
+    <t>(286000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser system (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
+  </si>
+  <si>
+    <t>(239003K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.7) Motor-operated valve failure(s)</t>
+  </si>
+  <si>
+    <t>(215001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Drive speed</t>
+  </si>
+  <si>
+    <t>(239001A4.12) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSR steam admission valves</t>
+  </si>
+  <si>
+    <t>(233000K4.08) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Pool cooling during loss of coolant accident (BWR 6)</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(201003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
+  </si>
+  <si>
+    <t>(288000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 PVS) PLANT VENTILATION SYSTEMS and the following systems: (CFR: 41.4 / 41.5 / 45.7 / 45.8) Standby gas treatment system</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292008K1.03) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Describe count rate and instrument response that should be observed for rod withdrawal during the approach to criticality</t>
-  </si>
-  <si>
-    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
-  </si>
-  <si>
-    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
-  </si>
-  <si>
-    <t>(293006K1.06) FLUID STATICS AND DYNAMICS (CFR: 41.14) Discuss methods of prevention of fluid/water hammer</t>
-  </si>
-  <si>
-    <t>(293009K1.35) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe the effects of iodine and cadmium on pellet-clad interaction</t>
-  </si>
-  <si>
-    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295010AA2.04) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295008AA2.05) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Swell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A2.07) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical distribution failure </t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293008K1.36) THERMAL HYDRAULICS (CFR: 41.14) (NATURAL CIRCULATION) Describe means by which the operator can determine if natural circulation flow exists</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295011AA2.03) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment humidity</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A2.18) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low (or negative) containment/drywell pressure during system operation</t>
+  </si>
+  <si>
+    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001A2.07) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor water level control system malfunctions</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295023</t>
+    <t>700000</t>
   </si>
   <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295029</t>
+    <t>295014</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
     <t>295011</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
     <t>295009</t>
   </si>
   <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>226001</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>230000</t>
+    <t>259001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1463,7 +1463,7 @@
         <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
         <v>105</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1905,7 +1905,7 @@
         <v>3.5</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
         <v>105</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
         <v>107</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
         <v>107</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="D84" t="s">
         <v>107</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
         <v>107</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D87" t="s">
         <v>107</v>
@@ -2449,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="s">
         <v>107</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
         <v>107</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
